--- a/Datakilder/Anvendelseskoder.xlsx
+++ b/Datakilder/Anvendelseskoder.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kench\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c79cbd02c8d62a0/Jobs/Hillerød/Sager/_KL Nøgletal/2020-10_Tilstandsvurdering/2024-10_Ny model/GitHub/Datakilder/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_AE4666C035CD670A1E15BCE5614689A8C4232A4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{299285A2-DEA9-46E5-96E6-F4540AF8BE48}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -629,7 +630,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,12 +680,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel1" displayName="Tabel1" ref="A1:C88" totalsRowShown="0">
-  <autoFilter ref="A1:C88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Anvendelseskoder" displayName="Anvendelseskoder" ref="A1:C88" totalsRowShown="0">
+  <autoFilter ref="A1:C88" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Kode"/>
-    <tableColumn id="3" name="Navn"/>
-    <tableColumn id="5" name="Beskrivelse"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kode"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Navn"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Beskrivelse"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -952,16 +953,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>110</v>
       </c>
@@ -983,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>120</v>
       </c>
@@ -994,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>131</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>132</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>140</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>150</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>160</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>185</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>190</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>211</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>212</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>213</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>214</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>215</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>216</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>217</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>218</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>219</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>221</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>222</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>223</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>229</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>231</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>232</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>233</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>234</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>239</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>311</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>312</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>313</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>314</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>315</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>319</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>321</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>322</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>323</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>324</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>325</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>329</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>331</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>332</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>333</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>334</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>339</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>411</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>412</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>413</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>414</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>415</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>416</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>419</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>421</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>422</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>429</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>431</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>432</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>433</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>439</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>441</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>442</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>443</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>444</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>449</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>510</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>520</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>521</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>522</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>523</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>529</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>531</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>532</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>533</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>534</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>535</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>539</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>540</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>585</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>590</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>910</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>920</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>930</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>940</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>950</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>960</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>970</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>990</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>999</v>
       </c>

--- a/Datakilder/Anvendelseskoder.xlsx
+++ b/Datakilder/Anvendelseskoder.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c79cbd02c8d62a0/Jobs/Hillerød/Sager/_KL Nøgletal/2020-10_Tilstandsvurdering/2024-10_Ny model/GitHub/Datakilder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AE4666C035CD670A1E15BCE5614689A8C4232A4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{299285A2-DEA9-46E5-96E6-F4540AF8BE48}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_AE4666C035CD670A1E15BCE5614689A8C4232A4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A2AB7A8-F4B1-4F0B-BE0C-5EEED34674F6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -687,7 +698,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Navn"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Beskrivelse"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -957,10 +968,14 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="61.46484375" customWidth="1"/>
+    <col min="3" max="3" width="83.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
